--- a/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.162</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.162</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -156,7 +162,16 @@
     <t>Activité de professionnel du social et médico-social exerçant des fonctions d'encadrement et d'organisation de l'accompagnement</t>
   </si>
   <si>
-    <t/>
+    <t>GENR13</t>
+  </si>
+  <si>
+    <t>Activité médico-administrative</t>
+  </si>
+  <si>
+    <t>GENR99</t>
+  </si>
+  <si>
+    <t>Autre activité</t>
   </si>
   <si>
     <t>System URI</t>
@@ -296,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -402,20 +417,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -425,7 +448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,106 +460,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2022-02-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,106 +72,91 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Activités des professionnels RASS nécessitant des règles de gestion spécifiques</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>GENR01</t>
+  </si>
+  <si>
+    <t>Activité de soin et de pharmacie</t>
+  </si>
+  <si>
+    <t>GENR02</t>
+  </si>
+  <si>
+    <t>Activité de soins ou de pharmacien en tant que remplaçant</t>
+  </si>
+  <si>
+    <t>GENR03</t>
+  </si>
+  <si>
+    <t>Remplacement dans une activité de soins</t>
+  </si>
+  <si>
+    <t>GENR04</t>
+  </si>
+  <si>
+    <t>Activité non soignante</t>
+  </si>
+  <si>
+    <t>GENR06</t>
+  </si>
+  <si>
+    <t>Délégation de responsabilité pour continuité de service</t>
+  </si>
+  <si>
+    <t>GENR08</t>
+  </si>
+  <si>
+    <t>Activité de coordination et d'orientation</t>
+  </si>
+  <si>
+    <t>GENR09</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions administratives ou d'appui à l'organisation de l'accompagnement</t>
+  </si>
+  <si>
+    <t>GENR10</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement à la vie sociale, professionnelle et éducative</t>
+  </si>
+  <si>
+    <t>GENR11</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement au soin</t>
+  </si>
+  <si>
+    <t>GENR12</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du social et médico-social exerçant des fonctions d'encadrement et d'organisation de l'accompagnement</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Activités des professionnels RASS nécessitant des règles de gestion spécifiques</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>GENR01</t>
-  </si>
-  <si>
-    <t>Activité de soin et de pharmacie</t>
-  </si>
-  <si>
-    <t>GENR02</t>
-  </si>
-  <si>
-    <t>Activité de soins ou de pharmacien en tant que remplaçant</t>
-  </si>
-  <si>
-    <t>GENR03</t>
-  </si>
-  <si>
-    <t>Remplacement dans une activité de soins</t>
-  </si>
-  <si>
-    <t>GENR04</t>
-  </si>
-  <si>
-    <t>Activité non soignante</t>
-  </si>
-  <si>
-    <t>GENR06</t>
-  </si>
-  <si>
-    <t>Délégation de responsabilité pour continuité de service</t>
-  </si>
-  <si>
-    <t>GENR08</t>
-  </si>
-  <si>
-    <t>Activité de coordination et d'orientation</t>
-  </si>
-  <si>
-    <t>GENR09</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions administratives ou d'appui à l'organisation de l'accompagnement</t>
-  </si>
-  <si>
-    <t>GENR10</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement à la vie sociale, professionnelle et éducative</t>
-  </si>
-  <si>
-    <t>GENR11</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement au soin</t>
-  </si>
-  <si>
-    <t>GENR12</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du social et médico-social exerçant des fonctions d'encadrement et d'organisation de l'accompagnement</t>
-  </si>
-  <si>
-    <t>GENR13</t>
-  </si>
-  <si>
-    <t>Activité médico-administrative</t>
-  </si>
-  <si>
-    <t>GENR99</t>
-  </si>
-  <si>
-    <t>Autre activité</t>
   </si>
   <si>
     <t>System URI</t>
@@ -311,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,28 +402,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,122 +437,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,103 +75,100 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Activités des professionnels RASS nécessitant des règles de gestion spécifiques</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>GENR01</t>
+  </si>
+  <si>
+    <t>Activité de soin et de pharmacie</t>
+  </si>
+  <si>
+    <t>GENR02</t>
+  </si>
+  <si>
+    <t>Activité de soins ou de pharmacien en tant que remplaçant</t>
+  </si>
+  <si>
+    <t>GENR03</t>
+  </si>
+  <si>
+    <t>Remplacement dans une activité de soins</t>
+  </si>
+  <si>
+    <t>GENR04</t>
+  </si>
+  <si>
+    <t>Activité non soignante</t>
+  </si>
+  <si>
+    <t>GENR06</t>
+  </si>
+  <si>
+    <t>Délégation de responsabilité pour continuité de service</t>
+  </si>
+  <si>
+    <t>GENR08</t>
+  </si>
+  <si>
+    <t>Activité de coordination et d'orientation</t>
+  </si>
+  <si>
+    <t>GENR09</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions administratives ou d'appui à l'organisation de l'accompagnement</t>
+  </si>
+  <si>
+    <t>GENR10</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement à la vie sociale, professionnelle et éducative</t>
+  </si>
+  <si>
+    <t>GENR11</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement au soin</t>
+  </si>
+  <si>
+    <t>GENR12</t>
+  </si>
+  <si>
+    <t>Activité de professionnel du social et médico-social exerçant des fonctions d'encadrement et d'organisation de l'accompagnement</t>
+  </si>
+  <si>
+    <t>GENR13</t>
+  </si>
+  <si>
+    <t>Activité médico-administrative</t>
+  </si>
+  <si>
+    <t>GENR99</t>
+  </si>
+  <si>
+    <t>Autre activité</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Activités des professionnels RASS nécessitant des règles de gestion spécifiques</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>GENR01</t>
-  </si>
-  <si>
-    <t>Activité de soin et de pharmacie</t>
-  </si>
-  <si>
-    <t>GENR02</t>
-  </si>
-  <si>
-    <t>Activité de soins ou de pharmacien en tant que remplaçant</t>
-  </si>
-  <si>
-    <t>GENR03</t>
-  </si>
-  <si>
-    <t>Remplacement dans une activité de soins</t>
-  </si>
-  <si>
-    <t>GENR04</t>
-  </si>
-  <si>
-    <t>Activité non soignante</t>
-  </si>
-  <si>
-    <t>GENR06</t>
-  </si>
-  <si>
-    <t>Délégation de responsabilité pour continuité de service</t>
-  </si>
-  <si>
-    <t>GENR08</t>
-  </si>
-  <si>
-    <t>Activité de coordination et d'orientation</t>
-  </si>
-  <si>
-    <t>GENR09</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions administratives ou d'appui à l'organisation de l'accompagnement</t>
-  </si>
-  <si>
-    <t>GENR10</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement à la vie sociale, professionnelle et éducative</t>
-  </si>
-  <si>
-    <t>GENR11</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du secteur social et médico-social exerçant des fonctions d'accompagnement au soin</t>
-  </si>
-  <si>
-    <t>GENR12</t>
-  </si>
-  <si>
-    <t>Activité de professionnel du social et médico-social exerçant des fonctions d'encadrement et d'organisation de l'accompagnement</t>
-  </si>
-  <si>
-    <t>GENR13</t>
-  </si>
-  <si>
-    <t>Activité médico-administrative</t>
-  </si>
-  <si>
-    <t>GENR99</t>
-  </si>
-  <si>
-    <t>Autre activité</t>
   </si>
   <si>
     <t>System URI</t>
@@ -311,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,28 +414,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -460,122 +449,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J94-GenreActivite-RASS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
